--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Desktop\paginaEstadistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\pag -estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE58A08-13CF-4151-A5B9-CC0884A9F99A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C147F3F-1CA6-42A7-AE04-392140E105AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1500" windowWidth="21525" windowHeight="11235" xr2:uid="{7025E47C-903F-4040-A4E9-C50D4A746C4C}"/>
+    <workbookView xWindow="7275" yWindow="3405" windowWidth="21525" windowHeight="11235" xr2:uid="{7025E47C-903F-4040-A4E9-C50D4A746C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,140 +31,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
-  <si>
-    <t>Topico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seccion </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Descripción </t>
-  </si>
-  <si>
-    <t>Estadistica Descriptpiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad </t>
-  </si>
-  <si>
-    <t>Fórmulas</t>
-  </si>
-  <si>
-    <t>Tema</t>
-  </si>
-  <si>
-    <t>Mediddas Basicas</t>
-  </si>
-  <si>
-    <t>Media, mediana, desvío</t>
-  </si>
-  <si>
-    <t>tp</t>
-  </si>
-  <si>
-    <t>Trabajo de Estadistica descriptiva</t>
-  </si>
-  <si>
-    <t>Teoría de Conjuntos, Teoremas d eprobabilidad básicos</t>
-  </si>
-  <si>
-    <t>Probablilidad Total , Bayes, Regla de Suma del producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las báses de probabilidad, toería de conjuntos un tema complementario para entender algunos de los teoremas básics d eprobablidad </t>
-  </si>
-  <si>
-    <t>Trabajo de Probablidad</t>
-  </si>
-  <si>
-    <t>Variables Aelatorias</t>
-  </si>
-  <si>
-    <t>Variables discretas</t>
-  </si>
-  <si>
-    <t>Variables continuas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aproximaciones </t>
-  </si>
-  <si>
-    <t>Teórico Variables Aelatorias</t>
-  </si>
-  <si>
-    <t>Suma de varaibles  y Teorema central del límite</t>
-  </si>
-  <si>
-    <t>1er Parcial</t>
-  </si>
-  <si>
-    <t>Clase</t>
-  </si>
-  <si>
-    <t>Tp</t>
-  </si>
-  <si>
-    <t>Clases</t>
-  </si>
-  <si>
-    <t>Cñases</t>
-  </si>
-  <si>
-    <t>Parcial</t>
-  </si>
-  <si>
-    <t>Ejercicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fórmulas Notas de </t>
-  </si>
-  <si>
-    <t>Notas de clase y Bibliogra´fia</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Notas de clase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bibliogra´fia</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Básicos ; menos básicos: </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+  <si>
+    <t>Decriptiva</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>TEST de Hipotesis</t>
+  </si>
+  <si>
+    <t>Regresion lineal</t>
+  </si>
+  <si>
+    <t>Chao</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>OpenIntro</t>
+  </si>
+  <si>
+    <t>Cap.2 y 3</t>
+  </si>
+  <si>
+    <t>cp4</t>
+  </si>
+  <si>
+    <t>VA Continuas</t>
+  </si>
+  <si>
+    <t>Va discretas</t>
+  </si>
+  <si>
+    <t>cap 6</t>
+  </si>
+  <si>
+    <t>cap 5</t>
+  </si>
+  <si>
+    <t>Estimadores</t>
+  </si>
+  <si>
+    <t>cap7</t>
+  </si>
+  <si>
+    <t>cap 8</t>
+  </si>
+  <si>
+    <t>cap9</t>
+  </si>
+  <si>
+    <t>cap10</t>
+  </si>
+  <si>
+    <t>cap 8, 9 , 10 , 11</t>
+  </si>
+  <si>
+    <t>cap 14</t>
+  </si>
+  <si>
+    <t>cap 2 y 3</t>
+  </si>
+  <si>
+    <t>cap8</t>
+  </si>
+  <si>
+    <t>cap 6 , 7</t>
+  </si>
+  <si>
+    <t>cap4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap 5 </t>
+  </si>
+  <si>
+    <t>cap2</t>
+  </si>
+  <si>
+    <t>cap3</t>
+  </si>
+  <si>
+    <t>cap4, 5</t>
+  </si>
+  <si>
+    <t>notas de nico</t>
+  </si>
+  <si>
+    <t>ISLR</t>
+  </si>
+  <si>
+    <t>Bibliografía Extra</t>
+  </si>
+  <si>
+    <t>Statistical Rethinking</t>
+  </si>
+  <si>
+    <t>Wonnacot</t>
+  </si>
+  <si>
+    <t>Dimitri</t>
+  </si>
+  <si>
+    <t>Walpole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,14 +160,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,13 +177,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,17 +521,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A799698B-F289-4705-83CC-EB3731795E09}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
@@ -543,155 +539,162 @@
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\pag -estadistica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C147F3F-1CA6-42A7-AE04-392140E105AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BE91B3-9EFC-4A1E-8A75-25C620A4763C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="3405" windowWidth="21525" windowHeight="11235" xr2:uid="{7025E47C-903F-4040-A4E9-C50D4A746C4C}"/>
+    <workbookView xWindow="315" yWindow="2205" windowWidth="8730" windowHeight="11235" xr2:uid="{7025E47C-903F-4040-A4E9-C50D4A746C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Decriptiva</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Walpole</t>
+  </si>
+  <si>
+    <t>1er parcial</t>
+  </si>
+  <si>
+    <t>2do parcialk</t>
   </si>
 </sst>
 </file>
@@ -202,11 +208,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A799698B-F289-4705-83CC-EB3731795E09}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,13 +588,13 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -596,11 +602,11 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -621,7 +627,7 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2"/>
@@ -636,7 +642,7 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
         <v>29</v>
@@ -666,27 +672,85 @@
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
